--- a/Simulations/logistic_sims/output/tables/data_metrics.xlsx
+++ b/Simulations/logistic_sims/output/tables/data_metrics.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbi\Desktop\Masters\Data Science\Thesis\Simulations\logistic_sims\output\tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D73FD12-5A31-4EAC-9DC3-76B051820CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$1</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>file_name</t>
   </si>
@@ -89,13 +98,49 @@
   </si>
   <si>
     <t>metrics_sim_Hamilton_Original_logistic_tfidf_0.json</t>
+  </si>
+  <si>
+    <t>metrics_sim_Hamilton_English_logistic_labse_0.json</t>
+  </si>
+  <si>
+    <t>metrics_sim_Hamilton_Multi_1_logistic_labse_0.json</t>
+  </si>
+  <si>
+    <t>metrics_sim_Hamilton_Multi_2_logistic_labse_0.json</t>
+  </si>
+  <si>
+    <t>metrics_sim_Hamilton_Original_logistic_labse_0.json</t>
+  </si>
+  <si>
+    <t>metrics_sim_Hamilton_English_logistic_stsb_0.json</t>
+  </si>
+  <si>
+    <t>metrics_sim_Hamilton_Multi_1_logistic_stsb_0.json</t>
+  </si>
+  <si>
+    <t>metrics_sim_Hamilton_Multi_2_logistic_stsb_0.json</t>
+  </si>
+  <si>
+    <t>metrics_sim_Hamilton_Original_logistic_stsb_0.json</t>
+  </si>
+  <si>
+    <t>metrics_sim_Hamilton_English_logistic_muse_0.json</t>
+  </si>
+  <si>
+    <t>metrics_sim_Hamilton_Multi_1_logistic_muse_0.json</t>
+  </si>
+  <si>
+    <t>metrics_sim_Hamilton_Multi_2_logistic_muse_0.json</t>
+  </si>
+  <si>
+    <t>metrics_sim_Hamilton_Original_logistic_muse_0.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,15 +199,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -204,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +289,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,6 +341,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,14 +534,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="64.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,21 +576,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>0.6744186046511628</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="D2">
-        <v>0.9418604651162791</v>
+        <v>0.96511627906976749</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.98837209302325579</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -504,30 +599,30 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.691437802907916</v>
+        <v>0.81960150780829299</v>
       </c>
       <c r="I2">
-        <v>0.5697674418604651</v>
+        <v>0.77906976744186052</v>
       </c>
       <c r="J2">
-        <v>163.7209302325581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>114.55813953488369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0.5930232558139535</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="D3">
-        <v>0.9418604651162791</v>
+        <v>0.97674418604651159</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.98837209302325579</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -536,30 +631,30 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.6892837910608508</v>
+        <v>0.81583198707592897</v>
       </c>
       <c r="I3">
-        <v>0.4883720930232558</v>
+        <v>0.77906976744186052</v>
       </c>
       <c r="J3">
-        <v>190.3488372093023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>108.1046511627907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>0.8837209302325582</v>
+        <v>0.86046511627906974</v>
       </c>
       <c r="D4">
-        <v>0.9767441860465116</v>
+        <v>0.95348837209302328</v>
       </c>
       <c r="E4">
-        <v>0.9883720930232558</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -568,27 +663,27 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.815831987075929</v>
+        <v>0.79536887452880989</v>
       </c>
       <c r="I4">
-        <v>0.7790697674418605</v>
+        <v>0.7558139534883721</v>
       </c>
       <c r="J4">
-        <v>108.1046511627907</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>123.8372093023256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>0.7790697674418605</v>
+        <v>0.83720930199999999</v>
       </c>
       <c r="D5">
-        <v>0.9418604651162791</v>
+        <v>0.97674418600000001</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -600,27 +695,27 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.6925148088314486</v>
+        <v>0.75498115200000004</v>
       </c>
       <c r="I5">
-        <v>0.6744186046511628</v>
+        <v>0.73255813999999997</v>
       </c>
       <c r="J5">
-        <v>131.4302325581395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>112.0465116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>0.6976744186046512</v>
+        <v>0.82558139500000005</v>
       </c>
       <c r="D6">
-        <v>0.9186046511627907</v>
+        <v>0.97674418600000001</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -632,30 +727,30 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.6768982229402262</v>
+        <v>0.77490576200000005</v>
       </c>
       <c r="I6">
-        <v>0.5930232558139535</v>
+        <v>0.72093023300000003</v>
       </c>
       <c r="J6">
-        <v>164.8720930232558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>114.9302326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.82558139534883723</v>
       </c>
       <c r="D7">
-        <v>0.8953488372093024</v>
+        <v>0.95348837209302328</v>
       </c>
       <c r="E7">
-        <v>0.9883720930232558</v>
+        <v>0.97674418604651159</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -664,30 +759,30 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.6381260096930533</v>
+        <v>0.80129240710823912</v>
       </c>
       <c r="I7">
-        <v>0.3953488372093023</v>
+        <v>0.72093023255813948</v>
       </c>
       <c r="J7">
-        <v>212.3139534883721</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>128.91860465116281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>0.8255813953488372</v>
+        <v>0.813953488</v>
       </c>
       <c r="D8">
-        <v>0.9534883720930233</v>
+        <v>0.96511627899999997</v>
       </c>
       <c r="E8">
-        <v>0.9767441860465116</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -696,59 +791,59 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.8012924071082391</v>
+        <v>0.77705977400000004</v>
       </c>
       <c r="I8">
-        <v>0.7209302325581395</v>
+        <v>0.70930232599999998</v>
       </c>
       <c r="J8">
-        <v>128.9186046511628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>117.3837209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>0.7790697674418605</v>
+        <v>0.813953488</v>
       </c>
       <c r="D9">
-        <v>0.8953488372093024</v>
+        <v>0.97674418600000001</v>
       </c>
       <c r="E9">
-        <v>0.9418604651162791</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.9534883720930233</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9883720930232558</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0.5061927840603123</v>
+        <v>0.78029079199999996</v>
       </c>
       <c r="I9">
-        <v>0.6744186046511628</v>
+        <v>0.70930232599999998</v>
       </c>
       <c r="J9">
-        <v>196.6744186046512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>114.8604651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>0.6976744186046512</v>
+        <v>0.77906976744186052</v>
       </c>
       <c r="D10">
-        <v>0.9418604651162791</v>
+        <v>0.94186046511627908</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -760,30 +855,30 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.687668282175552</v>
+        <v>0.69251480883144856</v>
       </c>
       <c r="I10">
-        <v>0.5930232558139535</v>
+        <v>0.67441860465116277</v>
       </c>
       <c r="J10">
-        <v>173.453488372093</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>131.43023255813949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>0.5465116279069767</v>
+        <v>0.77906976744186052</v>
       </c>
       <c r="D11">
-        <v>0.8953488372093024</v>
+        <v>0.93023255813953487</v>
       </c>
       <c r="E11">
-        <v>0.9883720930232558</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -792,91 +887,91 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.6305869682283253</v>
+        <v>0.63920301561658588</v>
       </c>
       <c r="I11">
-        <v>0.4418604651162791</v>
+        <v>0.67441860465116277</v>
       </c>
       <c r="J11">
-        <v>215.7441860465116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>144.59302325581399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>0.8604651162790697</v>
+        <v>0.77906976744186052</v>
       </c>
       <c r="D12">
-        <v>0.9534883720930233</v>
+        <v>0.89534883720930236</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.94186046511627908</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.95348837209302328</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.98837209302325579</v>
       </c>
       <c r="H12">
-        <v>0.7953688745288099</v>
+        <v>0.50619278406031232</v>
       </c>
       <c r="I12">
-        <v>0.7558139534883721</v>
+        <v>0.67441860465116277</v>
       </c>
       <c r="J12">
-        <v>123.8372093023256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>196.67441860465121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>0.7441860465116279</v>
+        <v>0.74418604700000002</v>
       </c>
       <c r="D13">
-        <v>0.9186046511627907</v>
+        <v>0.97674418600000001</v>
       </c>
       <c r="E13">
-        <v>0.9418604651162791</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.9534883720930233</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9883720930232558</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0.5191168551427033</v>
+        <v>0.74582660199999995</v>
       </c>
       <c r="I13">
-        <v>0.6395348837209303</v>
+        <v>0.63953488400000003</v>
       </c>
       <c r="J13">
-        <v>198.8837209302326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>130.11627910000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>0.6744186046511628</v>
+        <v>0.74418604700000002</v>
       </c>
       <c r="D14">
-        <v>0.9418604651162791</v>
+        <v>0.96511627899999997</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -888,62 +983,62 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.6892837910608508</v>
+        <v>0.72697899799999999</v>
       </c>
       <c r="I14">
-        <v>0.5697674418604651</v>
+        <v>0.63953488400000003</v>
       </c>
       <c r="J14">
-        <v>163.8953488372093</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>138.11627910000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>0.5232558139534884</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="D15">
-        <v>0.9186046511627907</v>
+        <v>0.91860465116279066</v>
       </c>
       <c r="E15">
-        <v>0.9883720930232558</v>
+        <v>0.94186046511627908</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.95348837209302328</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.98837209302325579</v>
       </c>
       <c r="H15">
-        <v>0.6661281637049004</v>
+        <v>0.51911685514270334</v>
       </c>
       <c r="I15">
-        <v>0.4186046511627907</v>
+        <v>0.63953488372093026</v>
       </c>
       <c r="J15">
-        <v>207.953488372093</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>198.88372093023261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C16">
-        <v>0.8837209302325582</v>
+        <v>0.72093023300000003</v>
       </c>
       <c r="D16">
-        <v>0.9651162790697675</v>
+        <v>0.93023255800000004</v>
       </c>
       <c r="E16">
-        <v>0.9883720930232558</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -952,48 +1047,437 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.819601507808293</v>
+        <v>0.67474421100000004</v>
       </c>
       <c r="I16">
-        <v>0.7790697674418605</v>
+        <v>0.61627907000000004</v>
       </c>
       <c r="J16">
-        <v>114.5581395348837</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>141.01162790000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>0.70930232599999998</v>
+      </c>
+      <c r="D17">
+        <v>0.95348837200000003</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0.73344103400000005</v>
+      </c>
+      <c r="I17">
+        <v>0.60465116299999999</v>
+      </c>
+      <c r="J17">
+        <v>138.6744186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>0.69767441860465118</v>
+      </c>
+      <c r="D18">
+        <v>0.94186046511627908</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0.68766828217555198</v>
+      </c>
+      <c r="I18">
+        <v>0.59302325581395354</v>
+      </c>
+      <c r="J18">
+        <v>173.45348837209301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>0.69767441860465118</v>
+      </c>
+      <c r="D19">
+        <v>0.91860465116279066</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0.67689822294022617</v>
+      </c>
+      <c r="I19">
+        <v>0.59302325581395354</v>
+      </c>
+      <c r="J19">
+        <v>164.87209302325579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>0.67441860465116277</v>
+      </c>
+      <c r="D20">
+        <v>0.94186046511627908</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0.69143780290791601</v>
+      </c>
+      <c r="I20">
+        <v>0.56976744186046513</v>
+      </c>
+      <c r="J20">
+        <v>163.72093023255809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0.67441860465116277</v>
+      </c>
+      <c r="D21">
+        <v>0.94186046511627908</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0.6892837910608508</v>
+      </c>
+      <c r="I21">
+        <v>0.56976744186046513</v>
+      </c>
+      <c r="J21">
+        <v>163.8953488372093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>0.59302325581395354</v>
+      </c>
+      <c r="D22">
+        <v>0.94186046511627908</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0.6892837910608508</v>
+      </c>
+      <c r="I22">
+        <v>0.48837209302325579</v>
+      </c>
+      <c r="J22">
+        <v>190.3488372093023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>0.54651162790697672</v>
+      </c>
+      <c r="D23">
+        <v>0.89534883720930236</v>
+      </c>
+      <c r="E23">
+        <v>0.98837209302325579</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0.63058696822832527</v>
+      </c>
+      <c r="I23">
+        <v>0.44186046511627908</v>
+      </c>
+      <c r="J23">
+        <v>215.7441860465116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.52325581395348841</v>
+      </c>
+      <c r="D24">
+        <v>0.91860465116279066</v>
+      </c>
+      <c r="E24">
+        <v>0.98837209302325579</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0.66612816370490036</v>
+      </c>
+      <c r="I24">
+        <v>0.41860465116279072</v>
+      </c>
+      <c r="J24">
+        <v>207.95348837209301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+      <c r="D25">
+        <v>0.89534883720930236</v>
+      </c>
+      <c r="E25">
+        <v>0.98837209302325579</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0.63812600969305333</v>
+      </c>
+      <c r="I25">
+        <v>0.39534883720930231</v>
+      </c>
+      <c r="J25">
+        <v>212.31395348837211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="C17">
-        <v>0.7790697674418605</v>
-      </c>
-      <c r="D17">
-        <v>0.9302325581395349</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0.6392030156165859</v>
-      </c>
-      <c r="I17">
-        <v>0.6744186046511628</v>
-      </c>
-      <c r="J17">
-        <v>144.593023255814</v>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="D26">
+        <v>0.86046511599999997</v>
+      </c>
+      <c r="E26">
+        <v>0.98837209299999995</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0.58373721099999998</v>
+      </c>
+      <c r="I26">
+        <v>0.39534883700000001</v>
+      </c>
+      <c r="J26">
+        <v>247.37209300000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>0.44186046499999998</v>
+      </c>
+      <c r="D27">
+        <v>0.87209302300000002</v>
+      </c>
+      <c r="E27">
+        <v>0.98837209299999995</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0.57781367800000005</v>
+      </c>
+      <c r="I27">
+        <v>0.33720930199999999</v>
+      </c>
+      <c r="J27">
+        <v>261.48837209999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>0.43023255799999999</v>
+      </c>
+      <c r="D28">
+        <v>0.84883720900000004</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0.59558427599999997</v>
+      </c>
+      <c r="I28">
+        <v>0.325581395</v>
+      </c>
+      <c r="J28">
+        <v>272.61627909999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>0.38372093000000002</v>
+      </c>
+      <c r="D29">
+        <v>0.87209302300000002</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0.60258481399999997</v>
+      </c>
+      <c r="I29">
+        <v>0.27906976700000002</v>
+      </c>
+      <c r="J29">
+        <v>260.25581399999999</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:J1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J29">
+      <sortCondition descending="1" ref="I1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>